--- a/media/course_import.xlsx
+++ b/media/course_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ash\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B35D85-1E86-482E-B2B7-7FDE377C1091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587D31B-CF06-4069-9F77-F3B6A6648EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27675" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>课程号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,44 +63,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161130303</t>
+    <t>限选</t>
+  </si>
+  <si>
+    <t>1-C-333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业课</t>
+  </si>
+  <si>
+    <t>计算机组成原理</t>
+  </si>
+  <si>
+    <t>必修</t>
+  </si>
+  <si>
+    <t>周一第3,4节;周三第3,4节;{第1-18周}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C-127</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>软件工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限选</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>1-C-333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四第1,2节;周五第1,2节;{第1-18周}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>615056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161130328</t>
-  </si>
-  <si>
-    <t>数据库实用技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四第3,4节;{第1-19周}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-B-127</t>
+  </si>
+  <si>
+    <t>人工智能导论</t>
+  </si>
+  <si>
+    <t>数字图像处理</t>
+  </si>
+  <si>
+    <t>HTML5技术与应用</t>
+  </si>
+  <si>
+    <t>Android平台与开发技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业英语</t>
+  </si>
+  <si>
+    <t>161130331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161130354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161130318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周四第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周五第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一第7,8节{第1-18周}</t>
+  </si>
+  <si>
+    <t>周三第7,8节{第1-18周}</t>
+  </si>
+  <si>
+    <t>周一第9,10节{第1-18周}</t>
+  </si>
+  <si>
+    <t>周三第9,10节{第1-18周}</t>
+  </si>
+  <si>
+    <t>周五第3,4节{第1-18周}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二第1,2节{第1-18周}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周而第5,6节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周二第7节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1-18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C-411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C-348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1-106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1-109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C-569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C-255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,9 +371,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +388,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,13 +437,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -159,7 +469,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,7 +764,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,213 +773,365 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6">
+        <v>161130206</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" s="6">
+        <v>617080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>161130303</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="6">
+        <v>111061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>161130308</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" s="6">
+        <v>618140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>161130309</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5" s="6">
+        <v>618140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>161130340</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="6">
+        <v>618142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>161130355</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7" s="6">
+        <v>614066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8" s="6">
+        <v>111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9" s="6">
+        <v>111001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" s="6">
+        <v>701031</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4:D1048576" xr:uid="{454B4914-5846-45F9-B52A-B309CC94AB39}">
-      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{735986FF-3794-4741-88EF-894BB8259CC0}">
+      <formula1>"限选"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{282D08AB-46F6-4101-8289-B05E4FFC5AD5}">
-      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,无"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{80AEEF99-DD0C-4F6E-95B3-B5963FBD27D3}">
+      <formula1>"限选,必修,公选"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{1092353B-7776-41F2-A77D-38BBDA6428BE}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{3507C27C-81BA-4EF3-8DD5-BCF9C0BBFB26}">
-      <formula1>"限选,必修,公选"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{85BB47DD-831F-49AA-A119-9B1ECA9C830B}">
+      <formula1>"人文与修养类,职业规划与就业指导类,创新创业类,专业课,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
